--- a/src/test/ExcelFile/Book1.xlsx
+++ b/src/test/ExcelFile/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>Armachen</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>hiwot@gmail.com</t>
+  </si>
+  <si>
+    <t>Bekle Bedada</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>251911235867</t>
+  </si>
+  <si>
+    <t>bedada@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -664,21 +676,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2">
-        <v>678999</v>
+      <c r="C2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>28</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
